--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{4911521D-3CED-4B5C-BE7A-AC1D4B1574FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3417363C-7940-4DDC-AECF-D9E002F1BEC7}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{4911521D-3CED-4B5C-BE7A-AC1D4B1574FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CBDEB2-7560-4510-B833-A79E146F4BFF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LDR template" sheetId="35" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Report No: LDR…………….........................</t>
   </si>
@@ -374,43 +374,6 @@
   </si>
   <si>
     <t>Replace damaged item from stock</t>
-  </si>
-  <si>
-    <t>SHYROKE</t>
-  </si>
-  <si>
-    <t>F.A. Rudnov Oleksandr</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-  </si>
-  <si>
-    <t>FORD TRANSIT</t>
-  </si>
-  <si>
-    <t>KA 5714 OP</t>
-  </si>
-  <si>
-    <t>MDD</t>
-  </si>
-  <si>
-    <t>Maksym Zinchenko</t>
-  </si>
-  <si>
-    <t>5000 uah</t>
   </si>
   <si>
     <t>Report No: MFR -.............</t>
@@ -670,11 +633,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF242424"/>
@@ -687,6 +645,13 @@
       <name val="Saysettha OT"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -925,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,6 +1010,99 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,47 +1112,16 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1133,98 +1160,32 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1670,7 +1631,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1682,7 +1643,7 @@
     <col min="5" max="6" width="29.140625" style="29" customWidth="1"/>
     <col min="7" max="7" width="17" style="29" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="29" customWidth="1"/>
     <col min="10" max="11" width="7.7109375" style="29" customWidth="1"/>
     <col min="12" max="16384" width="9.28515625" style="29"/>
   </cols>
@@ -1706,7 +1667,7 @@
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="H3" s="32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1">
@@ -1721,37 +1682,31 @@
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>44</v>
-      </c>
+      <c r="B5" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
@@ -1766,35 +1721,31 @@
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="34"/>
-      <c r="B8" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="117"/>
+      <c r="B8" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="34"/>
@@ -1809,29 +1760,27 @@
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="34"/>
-      <c r="B11" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="118"/>
+      <c r="B11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="52"/>
       <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="34"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="52"/>
       <c r="I12" s="51"/>
     </row>
@@ -1846,122 +1795,118 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="B14" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="129"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
       <c r="T19" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="35"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="123" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I23" s="35"/>
     </row>
@@ -1983,14 +1928,14 @@
       <c r="C25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60" t="s">
+      <c r="E25" s="73"/>
+      <c r="F25" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="49" t="s">
         <v>10</v>
       </c>
@@ -2003,13 +1948,9 @@
       <c r="B26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="58"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46"/>
       <c r="H26" s="44" t="s">
@@ -2023,8 +1964,8 @@
         <v>36</v>
       </c>
       <c r="C27" s="44"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="45"/>
       <c r="G27" s="46"/>
       <c r="H27" s="44"/>
@@ -2036,8 +1977,8 @@
         <v>15</v>
       </c>
       <c r="C28" s="44"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="44"/>
@@ -2049,8 +1990,8 @@
         <v>16</v>
       </c>
       <c r="C29" s="44"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
       <c r="H29" s="44"/>
@@ -2062,8 +2003,8 @@
         <v>18</v>
       </c>
       <c r="C30" s="44"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="44"/>
@@ -2093,6 +2034,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="D25:E25"/>
@@ -2101,13 +2049,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B15:I21"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.35433070866141703" right="0.15748031496063" top="0.99803149599999996" bottom="0.74803149606299202" header="0.31496062992126" footer="0.196850393700787"/>
@@ -2150,18 +2091,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="98"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="G3" s="81" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="G3" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2179,16 +2120,16 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2197,16 +2138,16 @@
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="89"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2223,12 +2164,12 @@
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2239,12 +2180,12 @@
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2253,101 +2194,101 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2369,10 +2310,10 @@
       <c r="D22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="125"/>
       <c r="G22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2387,8 +2328,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2399,8 +2340,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2411,8 +2352,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2447,21 +2388,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2476,6 +2417,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2488,20 +2443,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2510,12 +2451,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2759,20 +2702,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2798,18 +2748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OleRud441\NPA_Fleet_bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{4911521D-3CED-4B5C-BE7A-AC1D4B1574FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CBDEB2-7560-4510-B833-A79E146F4BFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A771104-6B98-4F86-AEF9-5FDF268F7A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -886,6 +886,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1048,7 +1059,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,9 +1101,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,49 +1108,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1184,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,10 +1284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,7 +1640,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1640,15 +1649,16 @@
     <col min="2" max="2" width="41.28515625" style="29" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
     <col min="4" max="4" width="23" style="29" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="17" style="29" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="1" style="29" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="29" customWidth="1"/>
     <col min="10" max="11" width="7.7109375" style="29" customWidth="1"/>
     <col min="12" max="16384" width="9.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="68.25" customHeight="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1657,7 +1667,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="22.15" customHeight="1">
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
       <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="22.15" customHeight="1">
@@ -1685,17 +1695,17 @@
       <c r="B5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="132"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
@@ -1724,13 +1734,13 @@
       <c r="B8" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="58" t="s">
         <v>43</v>
       </c>
@@ -1763,13 +1773,13 @@
       <c r="B11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="52"/>
       <c r="I11" s="51"/>
     </row>
@@ -1795,99 +1805,99 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
       <c r="T19" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="35"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="71"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="70"/>
       <c r="H22" s="69"/>
       <c r="I22" s="70"/>
@@ -1928,14 +1938,14 @@
       <c r="C25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="72" t="s">
+      <c r="E25" s="80"/>
+      <c r="F25" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="73"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="49" t="s">
         <v>10</v>
       </c>
@@ -1949,8 +1959,8 @@
         <v>35</v>
       </c>
       <c r="C26" s="55"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="91"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="45"/>
       <c r="G26" s="46"/>
       <c r="H26" s="44" t="s">
@@ -1964,8 +1974,8 @@
         <v>36</v>
       </c>
       <c r="C27" s="44"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="45"/>
       <c r="G27" s="46"/>
       <c r="H27" s="44"/>
@@ -1977,8 +1987,8 @@
         <v>15</v>
       </c>
       <c r="C28" s="44"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="44"/>
@@ -1990,8 +2000,8 @@
         <v>16</v>
       </c>
       <c r="C29" s="44"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
       <c r="H29" s="44"/>
@@ -2003,8 +2013,8 @@
         <v>18</v>
       </c>
       <c r="C30" s="44"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="45"/>
       <c r="G30" s="46"/>
       <c r="H30" s="44"/>
@@ -2033,7 +2043,7 @@
       <c r="I33" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D30:E30"/>
@@ -2049,6 +2059,7 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B15:I21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.35433070866141703" right="0.15748031496063" top="0.99803149599999996" bottom="0.74803149606299202" header="0.31496062992126" footer="0.196850393700787"/>
@@ -2091,18 +2102,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="G3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2120,16 +2131,16 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2138,16 +2149,16 @@
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="109"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2164,12 +2175,12 @@
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="102"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2180,12 +2191,12 @@
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2194,101 +2205,101 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2310,10 +2321,10 @@
       <c r="D22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="125"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2328,8 +2339,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2340,8 +2351,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2352,8 +2363,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2388,21 +2399,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2451,17 +2462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="c0524572cac4a814379c03538e99b5de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="386c4c15f4f56a4f4a6ef556de40cd03" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2701,7 +2701,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2710,24 +2710,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA50D2C-ACE2-4294-94A3-BA0424E077D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2747,10 +2741,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OleRud441\NPA_Fleet_bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A771104-6B98-4F86-AEF9-5FDF268F7A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B0E4C-FB15-4DD6-B1C7-DFB368D1D7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="LDR explanation" sheetId="36" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LDR template'!$B$3:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LDR template'!$B$2:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Report No: LDR…………….........................</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Replace damaged item from stock</t>
-  </si>
-  <si>
-    <t>Report No: MFR -.............</t>
   </si>
   <si>
     <t>VEHICLE or MACHINE
@@ -462,21 +459,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Allocation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Роподіл</t>
-    </r>
-  </si>
-  <si>
     <t>Description of fault or service requested:
 Опис несправності або необхідне обслуговування:</t>
   </si>
@@ -491,13 +473,17 @@
   </si>
   <si>
     <t xml:space="preserve">   Signature &amp;  Date</t>
+  </si>
+  <si>
+    <t>Date
+Дата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -616,11 +602,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF242424"/>
@@ -642,14 +623,23 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Saysettha OT"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -680,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -886,22 +876,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -957,8 +936,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1017,7 +991,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1033,11 +1007,11 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1046,32 +1020,32 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,43 +1072,10 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1200,6 +1141,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,429 +1605,447 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="23" style="29" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="1" style="29" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="29" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="29"/>
+    <col min="1" max="1" width="9.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="23" style="27" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="1" style="27" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="27" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="68.25" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
-      <c r="C2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="42" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="21" customHeight="1">
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:13" ht="62.25" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="9" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" hidden="1" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="25"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="42" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="H3" s="32" t="s">
+      <c r="C5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="56" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="27"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="59" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="59" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="58" t="s">
+      <c r="I6" s="66"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" s="25" customFormat="1" ht="45" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" ht="45" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="58" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="58" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="58" t="s">
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" s="25" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="66"/>
-    </row>
-    <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="65"/>
-    </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" s="27" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="57" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.1" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" ht="61.5" customHeight="1">
+      <c r="B15" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="58" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="65"/>
+      <c r="T20" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:20" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="B14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-    </row>
-    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-    </row>
-    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-    </row>
-    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
-      <c r="T19" s="56" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:20" ht="9.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B26" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-    </row>
-    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
-    </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:20" ht="9.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" s="47" customFormat="1" ht="25.15" customHeight="1">
-      <c r="B25" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="44" t="s">
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="44" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="44" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="44" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:20" ht="25.15" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="43" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="33" spans="2:9" ht="15">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="34" spans="2:9" ht="15">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
+  <mergeCells count="21">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B15:I21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.35433070866141703" right="0.15748031496063" top="0.99803149599999996" bottom="0.74803149606299202" header="0.31496062992126" footer="0.196850393700787"/>
@@ -2102,18 +2088,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="99"/>
+      <c r="C2" s="85"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="G3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2131,16 +2117,16 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="109"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2149,16 +2135,16 @@
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="110"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2175,12 +2161,12 @@
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2191,12 +2177,12 @@
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2205,101 +2191,101 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2321,10 +2307,10 @@
       <c r="D22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="132" t="s">
+      <c r="E22" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="126"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2339,8 +2325,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2351,8 +2337,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2363,8 +2349,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2399,21 +2385,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2462,6 +2448,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="c0524572cac4a814379c03538e99b5de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="386c4c15f4f56a4f4a6ef556de40cd03" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2701,7 +2698,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2710,18 +2707,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA50D2C-ACE2-4294-94A3-BA0424E077D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,27 +2744,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OleRud441\NPA_Fleet_bot\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B0E4C-FB15-4DD6-B1C7-DFB368D1D7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{730B0E4C-FB15-4DD6-B1C7-DFB368D1D7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F682DA41-49F2-41E3-991D-3F0E0AA468F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,26 +622,27 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Aptos Narrow"/>
+      <sz val="16"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -670,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -869,10 +870,30 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -880,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1024,28 +1045,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,22 +1087,53 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1117,58 +1172,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1252,6 +1255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,8 +1614,8 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1626,10 +1633,10 @@
     <col min="12" max="16384" width="9.28515625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="29" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:13" ht="62.25" customHeight="1">
+    <row r="2" spans="1:13" ht="21.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1659,7 +1666,7 @@
       <c r="H4" s="25"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1">
+    <row r="5" spans="1:13" ht="69.75" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="39" t="s">
         <v>34</v>
@@ -1676,13 +1683,13 @@
       <c r="B6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="55" t="s">
         <v>39</v>
       </c>
@@ -1715,13 +1722,13 @@
       <c r="B9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="55" t="s">
         <v>42</v>
       </c>
@@ -1754,13 +1761,13 @@
       <c r="B12" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="49"/>
       <c r="I12" s="48"/>
     </row>
@@ -1786,65 +1793,65 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="61.5" customHeight="1">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="124"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="65"/>
       <c r="T20" s="53" t="s">
         <v>13</v>
@@ -1852,31 +1859,31 @@
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:20" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="68"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="26"/>
       <c r="F23" s="69"/>
       <c r="G23" s="64"/>
@@ -1919,14 +1926,14 @@
       <c r="C26" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="76" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="46" t="s">
         <v>10</v>
       </c>
@@ -1940,8 +1947,8 @@
         <v>35</v>
       </c>
       <c r="C27" s="52"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="42"/>
       <c r="G27" s="43"/>
       <c r="H27" s="41" t="s">
@@ -1955,8 +1962,8 @@
         <v>36</v>
       </c>
       <c r="C28" s="41"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="42"/>
       <c r="G28" s="43"/>
       <c r="H28" s="41"/>
@@ -1968,8 +1975,8 @@
         <v>15</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="41"/>
@@ -1981,8 +1988,8 @@
         <v>16</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
       <c r="H30" s="41"/>
@@ -1994,8 +2001,8 @@
         <v>18</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="42"/>
       <c r="G31" s="43"/>
       <c r="H31" s="41"/>
@@ -2025,6 +2032,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D31:E31"/>
@@ -2041,11 +2053,6 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.35433070866141703" right="0.15748031496063" top="0.99803149599999996" bottom="0.74803149606299202" header="0.31496062992126" footer="0.196850393700787"/>
@@ -2088,18 +2095,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="G3" s="88" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="G3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2117,16 +2124,16 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="95"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2135,16 +2142,16 @@
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="96"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2161,12 +2168,12 @@
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2177,12 +2184,12 @@
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2191,101 +2198,101 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2307,10 +2314,10 @@
       <c r="D22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="118" t="s">
+      <c r="E22" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="15" t="s">
         <v>31</v>
       </c>
@@ -2325,8 +2332,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2337,8 +2344,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2349,8 +2356,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2385,21 +2392,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2414,20 +2421,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2440,6 +2433,20 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2448,17 +2455,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="c0524572cac4a814379c03538e99b5de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="386c4c15f4f56a4f4a6ef556de40cd03" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2698,6 +2694,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2708,23 +2715,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA50D2C-ACE2-4294-94A3-BA0424E077D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2744,6 +2734,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>

--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{730B0E4C-FB15-4DD6-B1C7-DFB368D1D7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F682DA41-49F2-41E3-991D-3F0E0AA468F6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E89D2D3-C609-48E7-97F4-AE23C796BCB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LDR template" sheetId="35" r:id="rId1"/>
+    <sheet name="MFR template" sheetId="35" r:id="rId1"/>
     <sheet name="LDR explanation" sheetId="36" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LDR template'!$B$2:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MFR template'!$A$1:$J$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Report No: LDR…………….........................</t>
   </si>
@@ -277,6 +277,12 @@
     <t>Miscel-</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -370,120 +376,74 @@
     <t>MECHANICAL FAILURE REPORT</t>
   </si>
   <si>
+    <t>VEHICLE or MACHINE</t>
+  </si>
+  <si>
+    <t>Driver / Operator</t>
+  </si>
+  <si>
+    <t>Reg / serial No.</t>
+  </si>
+  <si>
+    <t>KMs / HOURs</t>
+  </si>
+  <si>
+    <t>Asset No.</t>
+  </si>
+  <si>
+    <t>Description of fault or service requested:</t>
+  </si>
+  <si>
     <t>Repair the fault</t>
   </si>
   <si>
     <t>Replace damaged item from stock</t>
   </si>
   <si>
-    <t>VEHICLE or MACHINE
-Автомобіль або Машина</t>
-  </si>
-  <si>
-    <t>Reg / serial No.
-Реєстр. Номер</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Driver / Operator
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Водій / Оператор</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Location
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Локація</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allocation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Розподіл</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KMs / HOURs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>КМ / Мотогодини</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Asset No.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ассет №</t>
-    </r>
-  </si>
-  <si>
-    <t>Description of fault or service requested:
-Опис несправності або необхідне обслуговування:</t>
+    <t>Реєстр. Номер</t>
+  </si>
+  <si>
+    <t>Водій / Оператор</t>
+  </si>
+  <si>
+    <t>Локація</t>
+  </si>
+  <si>
+    <t>Розподіл</t>
+  </si>
+  <si>
+    <t>КМ / Мотогодини</t>
+  </si>
+  <si>
+    <t>Ассет №</t>
+  </si>
+  <si>
+    <t>Опис несправності або необхідне обслуговування:</t>
+  </si>
+  <si>
+    <t>Автомобіль або Машина</t>
+  </si>
+  <si>
+    <t>Report received by Fleet Officer                        Signature &amp;  Date</t>
+  </si>
+  <si>
+    <t>Report No: MFR - 25………….........................</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
   <si>
     <t xml:space="preserve"> Signature &amp; Date</t>
   </si>
   <si>
     <t xml:space="preserve">Reported by                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report received by Fleet Officer                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Signature &amp;  Date</t>
-  </si>
-  <si>
-    <t>Date
-Дата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -601,49 +561,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF242424"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -671,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -862,7 +779,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -871,8 +790,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="dotted">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -880,18 +801,7 @@
     <border>
       <left/>
       <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -957,6 +867,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -964,10 +876,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -975,23 +893,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,85 +908,64 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1087,26 +973,44 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,6 +1076,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1255,6 +1165,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1852282</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>571580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5A7E88-78A1-C744-CAC5-4539736D9DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2505425" cy="571580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1612,457 +1571,470 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="23" style="27" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="1" style="27" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="27" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="27"/>
+    <col min="1" max="1" width="9.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="23" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="17" style="29" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="29" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="25"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" hidden="1" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="25"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" ht="69.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="56" t="s">
+    <row r="1" spans="1:9" ht="48.6" customHeight="1">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" s="31" customFormat="1" ht="22.15" customHeight="1">
+      <c r="B3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="H3" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="56" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="66"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" s="25" customFormat="1" ht="45" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="55" t="s">
+      <c r="I5" s="120"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="121"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.1" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="55" t="s">
+      <c r="I8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="55" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.1" customHeight="1">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="B14" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" s="25" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="54" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="B15" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" s="43" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B25" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="70"/>
+      <c r="F25" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.15" customHeight="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" ht="61.5" customHeight="1">
-      <c r="B15" s="79" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.15" customHeight="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="65"/>
-      <c r="T20" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="65"/>
-    </row>
-    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="65"/>
-    </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:20" ht="9.75" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1">
-      <c r="B26" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" spans="1:20" ht="25.15" customHeight="1">
-      <c r="A31" s="32"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.15" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.15" customHeight="1">
+      <c r="A29" s="36"/>
+      <c r="B29" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="1:9" ht="25.15" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-    </row>
-    <row r="34" spans="2:9" ht="15">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D31:E31"/>
+  <mergeCells count="32">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.35433070866141703" right="0.15748031496063" top="0.99803149599999996" bottom="0.74803149606299202" header="0.31496062992126" footer="0.196850393700787"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="3.3333333333333333E-2" bottom="0" header="0" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;LNPA 
 Mine Action and Disarmament in Ukraine&amp;CLogistics office (1931) - MFR&amp;R&amp;11SUBPROJECT...........................  ACTIVITY.......................</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2071,7 +2043,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2095,18 +2067,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="99"/>
+      <c r="B2" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="G3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2122,36 +2094,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="103"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="101"/>
       <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="109"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="104"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="102"/>
       <c r="D6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
+        <v>26</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="110"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2166,14 +2138,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="103"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="101"/>
       <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2182,117 +2154,117 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="104"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="102"/>
       <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1"/>
     <row r="11" spans="1:12" ht="14.1" customHeight="1">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="90"/>
+      <c r="B20" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="88"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
+      <c r="E20" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2306,65 +2278,65 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="87"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="85"/>
       <c r="G22" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2376,7 +2348,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2388,29 +2360,29 @@
     <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
+      <c r="B29" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -2455,8 +2427,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="c0524572cac4a814379c03538e99b5de">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="386c4c15f4f56a4f4a6ef556de40cd03" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="13" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="214376cd52e325c434874a1d1ddd6141">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="680e54c7ee3a20099e6de7c64582bc59" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
     <xsd:import namespace="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
     <xsd:import namespace="7e313902-c99d-4341-acc8-47e8c47e85b9"/>
@@ -2478,8 +2459,6 @@
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2505,7 +2484,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Теги зображень" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c23062cb-a56e-478b-b69f-a45acc36db13" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Теги изображений" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c23062cb-a56e-478b-b69f-a45acc36db13" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2539,16 +2518,6 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="729437f7-5cf8-4ba1-b417-1154ceee442d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2568,7 +2537,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e313902-c99d-4341-acc8-47e8c47e85b9" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Спільний доступ" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Общий доступ с использованием" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2587,7 +2556,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Відомості про тих, хто має доступ" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Совместно с подробностями" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2604,8 +2573,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип вмісту"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Заголовок"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2694,7 +2663,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
@@ -2705,17 +2674,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA50D2C-ACE2-4294-94A3-BA0424E077D7}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0457970C-8D0E-40F7-A44F-4516504D7E4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2734,7 +2702,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2749,12 +2717,4 @@
     <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E89D2D3-C609-48E7-97F4-AE23C796BCB5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9E42DE-FD24-407E-B193-3013698F06CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,6 +943,57 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,21 +1003,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,68 +1012,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1076,11 +1051,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:I16"/>
+      <selection activeCell="B16" sqref="B16:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1593,8 +1593,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1630,34 +1630,34 @@
       <c r="B5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="121"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
@@ -1675,34 +1675,34 @@
       <c r="B8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="33"/>
@@ -1720,13 +1720,13 @@
       <c r="B11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="B12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="47"/>
       <c r="I12" s="46"/>
     </row>
@@ -1756,99 +1756,99 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="36"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="36"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="60"/>
       <c r="I22" s="35"/>
     </row>
@@ -1857,10 +1857,10 @@
       <c r="B23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37" t="s">
         <v>53</v>
@@ -1887,14 +1887,14 @@
       <c r="C25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="69" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="45" t="s">
         <v>12</v>
       </c>
@@ -1908,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="42"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="42" t="s">
         <v>15</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>44</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
@@ -1936,10 +1936,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
@@ -1949,10 +1949,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="42"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
     </row>
@@ -1962,8 +1962,8 @@
         <v>20</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="48"/>
       <c r="G30" s="49"/>
       <c r="H30" s="42"/>
@@ -1974,12 +1974,12 @@
         <v>21</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="38"/>
@@ -1993,6 +1993,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:B1"/>
@@ -2009,22 +2025,6 @@
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="3.3333333333333333E-2" bottom="0" header="0" footer="0.3"/>
@@ -2067,18 +2067,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="G3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2096,16 +2096,16 @@
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="107"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2114,16 +2114,16 @@
       <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2140,12 +2140,12 @@
       <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2156,12 +2156,12 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="102"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2170,101 +2170,101 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2286,10 +2286,10 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2304,8 +2304,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2316,8 +2316,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2328,8 +2328,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2364,21 +2364,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2393,6 +2393,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2405,20 +2419,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2427,12 +2427,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2664,20 +2666,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2703,18 +2712,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9E42DE-FD24-407E-B193-3013698F06CA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D1604-9B80-4596-8E9C-FC681A62D4B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,6 +943,36 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,37 +1012,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1051,35 +1076,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1593,8 +1593,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1630,34 +1630,34 @@
       <c r="B5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
@@ -1675,34 +1675,34 @@
       <c r="B8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="33"/>
@@ -1720,13 +1720,13 @@
       <c r="B11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="47"/>
       <c r="I11" s="46"/>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="B12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="47"/>
       <c r="I12" s="46"/>
     </row>
@@ -1756,24 +1756,24 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -1844,11 +1844,11 @@
     <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="60"/>
       <c r="I22" s="35"/>
     </row>
@@ -1857,10 +1857,10 @@
       <c r="B23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37" t="s">
         <v>53</v>
@@ -1887,14 +1887,14 @@
       <c r="C25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="81" t="s">
+      <c r="E25" s="69"/>
+      <c r="F25" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="45" t="s">
         <v>12</v>
       </c>
@@ -1908,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="42"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="42" t="s">
         <v>15</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>44</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
@@ -1936,10 +1936,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
@@ -1949,10 +1949,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="42"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
     </row>
@@ -1962,8 +1962,8 @@
         <v>20</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="48"/>
       <c r="G30" s="49"/>
       <c r="H30" s="42"/>
@@ -1974,12 +1974,12 @@
         <v>21</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="38"/>
@@ -1993,6 +1993,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="F5:G6"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B21:I21"/>
@@ -2009,22 +2025,6 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="F5:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="3.3333333333333333E-2" bottom="0" header="0" footer="0.3"/>
@@ -2067,18 +2067,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="G3" s="89" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="G3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="86"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2096,16 +2096,16 @@
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="90"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="96"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2114,16 +2114,16 @@
       <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2140,12 +2140,12 @@
       <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2156,12 +2156,12 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2170,101 +2170,101 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="116"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2286,10 +2286,10 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2304,8 +2304,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2316,8 +2316,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2328,8 +2328,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2364,21 +2364,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2393,20 +2393,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2419,6 +2405,20 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2427,14 +2427,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2666,27 +2664,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2712,9 +2703,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D1604-9B80-4596-8E9C-FC681A62D4B8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FC3BB8-6306-411F-AB0F-0C6233EB4CC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -529,37 +529,48 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Saysettha OT"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -811,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,162 +893,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1076,11 +943,158 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1588,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:I21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1593,8 +1607,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1604,10 +1618,10 @@
     <row r="2" spans="1:9" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="40"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:9" s="31" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="25"/>
@@ -1627,372 +1641,388 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="59" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="75"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="59" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="52" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="52" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="54"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="33"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="59" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="46"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="52" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="46"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="35"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
+      <c r="D23" s="111"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="25.15" customHeight="1">
-      <c r="B25" s="44" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+    </row>
+    <row r="25" spans="1:9" s="37" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B25" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="68" t="s">
+      <c r="E25" s="115"/>
+      <c r="F25" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="115"/>
+      <c r="H25" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="113" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.15" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="42" t="s">
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="116"/>
     </row>
     <row r="27" spans="1:9" ht="25.15" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
     </row>
     <row r="28" spans="1:9" ht="25.15" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
     </row>
     <row r="29" spans="1:9" ht="25.15" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
     </row>
     <row r="30" spans="1:9" ht="25.15" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:B1"/>
@@ -2009,22 +2039,6 @@
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="3.3333333333333333E-2" bottom="0" header="0" footer="0.3"/>
@@ -2067,18 +2081,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="G3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2096,16 +2110,16 @@
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="107"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2114,16 +2128,16 @@
       <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2140,12 +2154,12 @@
       <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2156,12 +2170,12 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="102"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2170,101 +2184,101 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2286,10 +2300,10 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2304,8 +2318,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2316,8 +2330,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2328,8 +2342,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2364,21 +2378,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2393,6 +2407,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2405,20 +2433,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2427,15 +2441,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="13" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="214376cd52e325c434874a1d1ddd6141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="680e54c7ee3a20099e6de7c64582bc59" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2663,6 +2668,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2675,14 +2689,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0457970C-8D0E-40F7-A44F-4516504D7E4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2698,6 +2704,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FC3BB8-6306-411F-AB0F-0C6233EB4CC8}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74C2EA0-EE9C-4101-9DB0-F61E2A4190CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,10 +901,163 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -943,159 +1096,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1607,8 +1607,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1641,359 +1641,359 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="85"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="87"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="84" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="84" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="92"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="33"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="84" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1">
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="34"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="34"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="34"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110" t="s">
+      <c r="D23" s="72"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:9" ht="9.75" customHeight="1">
       <c r="A24" s="34"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" ht="25.15" customHeight="1">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="114" t="s">
+      <c r="E25" s="71"/>
+      <c r="F25" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="113" t="s">
+      <c r="G25" s="71"/>
+      <c r="H25" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.15" customHeight="1">
       <c r="A26" s="34"/>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="116" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="25.15" customHeight="1">
       <c r="A27" s="34"/>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="1:9" ht="25.15" customHeight="1">
       <c r="A28" s="34"/>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="25.15" customHeight="1">
       <c r="A29" s="34"/>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9" ht="25.15" customHeight="1">
       <c r="A30" s="34"/>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="35"/>
@@ -2007,6 +2007,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="F5:G6"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B21:I21"/>
@@ -2023,26 +2039,10 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="F5:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0" right="0" top="3.3333333333333333E-2" bottom="0" header="0" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="0" header="0" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LNPA 
 Mine Action and Disarmament in Ukraine&amp;CLogistics office (1931) - MFR&amp;R&amp;11SUBPROJECT...........................  ACTIVITY.......................</oddFooter>
@@ -2081,18 +2081,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="100"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="G3" s="44" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="G3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2110,16 +2110,16 @@
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2128,16 +2128,16 @@
       <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2154,12 +2154,12 @@
       <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2170,12 +2170,12 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2184,101 +2184,101 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2300,10 +2300,10 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2318,8 +2318,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2330,8 +2330,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2342,8 +2342,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2378,21 +2378,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2407,20 +2407,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2433,6 +2419,20 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2669,15 +2669,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
@@ -2686,6 +2677,15 @@
     <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2709,14 +2709,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2731,4 +2723,12 @@
     <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel/MFR.xlsx
+++ b/excel/MFR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74C2EA0-EE9C-4101-9DB0-F61E2A4190CD}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{90B7C6D6-685E-48F9-99BB-405291F933D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1884F24F-41C5-4DE0-8DA4-070BA112C36E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>Report received by Fleet Officer                        Signature &amp;  Date</t>
   </si>
   <si>
-    <t>Report No: MFR - 25………….........................</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reported by                          </t>
+  </si>
+  <si>
+    <t>Report No: MFR - 26………….........................</t>
   </si>
 </sst>
 </file>
@@ -957,6 +957,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,21 +1023,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,74 +1032,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1096,6 +1071,31 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1228,10 +1228,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,7 +1584,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -1607,8 +1603,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1627,7 +1623,7 @@
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="H3" s="32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1">
@@ -1644,34 +1640,34 @@
       <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="78"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
@@ -1689,34 +1685,34 @@
       <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="33"/>
@@ -1734,13 +1730,13 @@
       <c r="B11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="48"/>
       <c r="I11" s="49"/>
     </row>
@@ -1749,13 +1745,13 @@
       <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="48"/>
       <c r="I12" s="49"/>
     </row>
@@ -1770,38 +1766,38 @@
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="65"/>
@@ -1858,23 +1854,23 @@
     <row r="22" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="51"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="52"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="53"/>
       <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="C23" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="86"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55" t="s">
         <v>53</v>
@@ -1901,14 +1897,14 @@
       <c r="C25" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="71"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="57" t="s">
         <v>12</v>
       </c>
@@ -1922,10 +1918,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="58"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="58" t="s">
         <v>15</v>
       </c>
@@ -1937,10 +1933,10 @@
         <v>44</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
@@ -1950,10 +1946,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="58"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
     </row>
@@ -1963,10 +1959,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="58"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
     </row>
@@ -1976,8 +1972,8 @@
         <v>20</v>
       </c>
       <c r="C30" s="58"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
       <c r="H30" s="58"/>
@@ -1988,12 +1984,12 @@
         <v>21</v>
       </c>
       <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="35"/>
@@ -2007,6 +2003,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:B1"/>
@@ -2023,22 +2035,6 @@
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2081,18 +2077,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="89"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="G3" s="103" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="100"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2110,16 +2106,16 @@
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="110"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2128,16 +2124,16 @@
       <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2154,12 +2150,12 @@
       <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2170,12 +2166,12 @@
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2184,101 +2180,101 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2300,10 +2296,10 @@
       <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2318,8 +2314,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2330,8 +2326,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2342,8 +2338,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2378,21 +2374,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2407,6 +2403,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2419,20 +2429,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2441,6 +2437,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="13" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="214376cd52e325c434874a1d1ddd6141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="680e54c7ee3a20099e6de7c64582bc59" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2668,42 +2684,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0457970C-8D0E-40F7-A44F-4516504D7E4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-    <ds:schemaRef ds:uri="7e313902-c99d-4341-acc8-47e8c47e85b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2726,9 +2710,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0457970C-8D0E-40F7-A44F-4516504D7E4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+    <ds:schemaRef ds:uri="7e313902-c99d-4341-acc8-47e8c47e85b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>